--- a/td_toolkits_v3/opticals/tests/test_files/condition/conditions_5905_test.xlsx
+++ b/td_toolkits_v3/opticals/tests/test_files/condition/conditions_5905_test.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_v3\td_toolkits_v3\opticals\tests\test_files\condition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,383 +26,383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1098-like-TR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD11001105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCT-15-1098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">723K1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NB0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC19V33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BU001NA0S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLC20V87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NL2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILD-843001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NP2S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIX-7054XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T19BR001NN2S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="123">
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>exp id</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>short id</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>1098-like-TR2</t>
+  </si>
+  <si>
+    <t>RD11001105</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>T19BU001NB</t>
+  </si>
+  <si>
+    <t>T19BU001NB0M</t>
+  </si>
+  <si>
+    <t>1-22</t>
+  </si>
+  <si>
+    <t>LCT-15-1098</t>
+  </si>
+  <si>
+    <t>723K1M</t>
+  </si>
+  <si>
+    <t>T19BU001NB0S</t>
+  </si>
+  <si>
+    <t>1-23</t>
+  </si>
+  <si>
+    <t>T19BU001NB05</t>
+  </si>
+  <si>
+    <t>1-25</t>
+  </si>
+  <si>
+    <t>T19BU001NB0B</t>
+  </si>
+  <si>
+    <t>1-26</t>
+  </si>
+  <si>
+    <t>T19BU001NB0H</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>T19BU001NB0N</t>
+  </si>
+  <si>
+    <t>1-28</t>
+  </si>
+  <si>
+    <t>T19BU001NB0T</t>
+  </si>
+  <si>
+    <t>1-29</t>
+  </si>
+  <si>
+    <t>T19BU001NB0Z</t>
+  </si>
+  <si>
+    <t>1-30</t>
+  </si>
+  <si>
+    <t>T19BU001NB06</t>
+  </si>
+  <si>
+    <t>1-31</t>
+  </si>
+  <si>
+    <t>T19BU001NB0C</t>
+  </si>
+  <si>
+    <t>1-32</t>
+  </si>
+  <si>
+    <t>T19BU001NA</t>
+  </si>
+  <si>
+    <t>T19BU001NA0Q</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>SLC19V33</t>
+  </si>
+  <si>
+    <t>T19BU001NA0W</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>T19BU001NA03</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>T19BU001NA09</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>T19BU001NA0F</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>T19BU001NA0L</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>T19BU001NA0R</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>T19BU001NA0X</t>
+  </si>
+  <si>
+    <t>2-18</t>
+  </si>
+  <si>
+    <t>T19BU001NA0M</t>
+  </si>
+  <si>
+    <t>2-22</t>
+  </si>
+  <si>
+    <t>T19BU001NA0S</t>
+  </si>
+  <si>
+    <t>2-23</t>
+  </si>
+  <si>
+    <t>T19BR001NL</t>
+  </si>
+  <si>
+    <t>T19BR001NL2Q</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>SLC20V87</t>
+  </si>
+  <si>
+    <t>T19BR001NL2W</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>T19BR001NL23</t>
+  </si>
+  <si>
+    <t>4-13</t>
+  </si>
+  <si>
+    <t>T19BR001NL29</t>
+  </si>
+  <si>
+    <t>4-14</t>
+  </si>
+  <si>
+    <t>T19BR001NL2F</t>
+  </si>
+  <si>
+    <t>4-15</t>
+  </si>
+  <si>
+    <t>T19BR001NL2L</t>
+  </si>
+  <si>
+    <t>4-16</t>
+  </si>
+  <si>
+    <t>T19BR001NL2X</t>
+  </si>
+  <si>
+    <t>4-18</t>
+  </si>
+  <si>
+    <t>T19BR001NL24</t>
+  </si>
+  <si>
+    <t>4-19</t>
+  </si>
+  <si>
+    <t>T19BR001NL2A</t>
+  </si>
+  <si>
+    <t>4-20</t>
+  </si>
+  <si>
+    <t>T19BR001NP</t>
+  </si>
+  <si>
+    <t>T19BR001NP23</t>
+  </si>
+  <si>
+    <t>5-13</t>
+  </si>
+  <si>
+    <t>ILD-843001</t>
+  </si>
+  <si>
+    <t>T19BR001NP29</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>T19BR001NP2F</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>T19BR001NP2L</t>
+  </si>
+  <si>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>T19BR001NP2R</t>
+  </si>
+  <si>
+    <t>5-17</t>
+  </si>
+  <si>
+    <t>T19BR001NP2X</t>
+  </si>
+  <si>
+    <t>5-18</t>
+  </si>
+  <si>
+    <t>T19BR001NP24</t>
+  </si>
+  <si>
+    <t>5-19</t>
+  </si>
+  <si>
+    <t>T19BR001NP2A</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>T19BR001NP2G</t>
+  </si>
+  <si>
+    <t>5-21</t>
+  </si>
+  <si>
+    <t>T19BR001NP2S</t>
+  </si>
+  <si>
+    <t>5-23</t>
+  </si>
+  <si>
+    <t>T19BR001NN</t>
+  </si>
+  <si>
+    <t>T19BR001NN29</t>
+  </si>
+  <si>
+    <t>6-14</t>
+  </si>
+  <si>
+    <t>ZIX-7054XX</t>
+  </si>
+  <si>
+    <t>T19BR001NN2F</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>T19BR001NN2L</t>
+  </si>
+  <si>
+    <t>6-16</t>
+  </si>
+  <si>
+    <t>T19BR001NN2R</t>
+  </si>
+  <si>
+    <t>6-17</t>
+  </si>
+  <si>
+    <t>T19BR001NN2X</t>
+  </si>
+  <si>
+    <t>6-18</t>
+  </si>
+  <si>
+    <t>T19BR001NN24</t>
+  </si>
+  <si>
+    <t>6-19</t>
+  </si>
+  <si>
+    <t>T19BR001NN2A</t>
+  </si>
+  <si>
+    <t>6-20</t>
+  </si>
+  <si>
+    <t>T19BR001NN2G</t>
+  </si>
+  <si>
+    <t>6-21</t>
+  </si>
+  <si>
+    <t>T19BR001NN2M</t>
+  </si>
+  <si>
+    <t>6-22</t>
+  </si>
+  <si>
+    <t>T19BR001NN2S</t>
+  </si>
+  <si>
+    <t>6-23</t>
+  </si>
+  <si>
+    <t>SE-7492</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -406,25 +410,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,7 +431,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -444,91 +439,319 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.79"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="10" max="10" width="10.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="1024" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,14 +783,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>5905</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -585,21 +808,21 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>7492</v>
+      <c r="I2" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>5905</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -617,21 +840,21 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>7492</v>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>5905</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -649,21 +872,21 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <v>7492</v>
+      <c r="I4" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>5905</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -681,21 +904,21 @@
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <v>7492</v>
+      <c r="I5" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>5905</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -713,21 +936,21 @@
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <v>7492</v>
+      <c r="I6" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>5905</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -745,21 +968,21 @@
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <v>7492</v>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>5905</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -777,21 +1000,21 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <v>7492</v>
+      <c r="I8" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>5905</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -809,21 +1032,21 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>7492</v>
+      <c r="I9" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>5905</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -841,21 +1064,21 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <v>7492</v>
+      <c r="I10" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>5905</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -873,21 +1096,21 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <v>7492</v>
+      <c r="I11" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>5905</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -905,21 +1128,21 @@
       <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <v>7492</v>
+      <c r="I12" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>5905</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -937,21 +1160,21 @@
       <c r="H13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <v>7492</v>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>5905</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -969,21 +1192,21 @@
       <c r="H14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>7492</v>
+      <c r="I14" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>5905</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1001,21 +1224,21 @@
       <c r="H15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <v>7492</v>
+      <c r="I15" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>5905</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1033,21 +1256,21 @@
       <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <v>7492</v>
+      <c r="I16" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>5905</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1065,21 +1288,21 @@
       <c r="H17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>7492</v>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>5905</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1097,21 +1320,21 @@
       <c r="H18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>7492</v>
+      <c r="I18" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>5905</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1129,21 +1352,21 @@
       <c r="H19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>7492</v>
+      <c r="I19" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>5905</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1161,21 +1384,21 @@
       <c r="H20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <v>7492</v>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>5905</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1193,21 +1416,21 @@
       <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>7492</v>
+      <c r="I21" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>5905</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1225,21 +1448,21 @@
       <c r="H22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>7492</v>
+      <c r="I22" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>5905</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1257,21 +1480,21 @@
       <c r="H23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>7492</v>
+      <c r="I23" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>5905</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1289,21 +1512,21 @@
       <c r="H24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>7492</v>
+      <c r="I24" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>5905</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1321,21 +1544,21 @@
       <c r="H25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>7492</v>
+      <c r="I25" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>5905</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1353,21 +1576,21 @@
       <c r="H26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>7492</v>
+      <c r="I26" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>5905</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1385,21 +1608,21 @@
       <c r="H27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <v>7492</v>
+      <c r="I27" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>5905</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1417,21 +1640,21 @@
       <c r="H28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <v>7492</v>
+      <c r="I28" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>5905</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1449,21 +1672,21 @@
       <c r="H29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <v>7492</v>
+      <c r="I29" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>5905</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1481,21 +1704,21 @@
       <c r="H30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <v>7492</v>
+      <c r="I30" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>5905</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1513,21 +1736,21 @@
       <c r="H31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <v>7492</v>
+      <c r="I31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>5905</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1545,21 +1768,21 @@
       <c r="H32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <v>7492</v>
+      <c r="I32" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>5905</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1577,21 +1800,21 @@
       <c r="H33" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <v>7492</v>
+      <c r="I33" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>5905</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1609,21 +1832,21 @@
       <c r="H34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <v>7492</v>
+      <c r="I34" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>5905</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1641,21 +1864,21 @@
       <c r="H35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>7492</v>
+      <c r="I35" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>5905</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1673,21 +1896,21 @@
       <c r="H36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <v>7492</v>
+      <c r="I36" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>5905</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1705,21 +1928,21 @@
       <c r="H37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <v>7492</v>
+      <c r="I37" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>5905</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1737,21 +1960,21 @@
       <c r="H38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <v>7492</v>
+      <c r="I38" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="1">
         <v>5905</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1769,21 +1992,21 @@
       <c r="H39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>7492</v>
+      <c r="I39" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>5905</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1801,21 +2024,21 @@
       <c r="H40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="1" t="n">
-        <v>7492</v>
+      <c r="I40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>5905</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1833,21 +2056,21 @@
       <c r="H41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <v>7492</v>
+      <c r="I41" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>5905</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1865,21 +2088,21 @@
       <c r="H42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="1" t="n">
-        <v>7492</v>
+      <c r="I42" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="1">
         <v>5905</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1897,21 +2120,21 @@
       <c r="H43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I43" s="1" t="n">
-        <v>7492</v>
+      <c r="I43" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="1">
         <v>5905</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1929,21 +2152,21 @@
       <c r="H44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I44" s="1" t="n">
-        <v>7492</v>
+      <c r="I44" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>5905</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1961,21 +2184,21 @@
       <c r="H45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="1" t="n">
-        <v>7492</v>
+      <c r="I45" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>5905</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1993,21 +2216,21 @@
       <c r="H46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="1" t="n">
-        <v>7492</v>
+      <c r="I46" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>5905</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2025,21 +2248,21 @@
       <c r="H47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I47" s="1" t="n">
-        <v>7492</v>
+      <c r="I47" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>5905</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2057,21 +2280,21 @@
       <c r="H48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="1" t="n">
-        <v>7492</v>
+      <c r="I48" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>5905</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -2089,21 +2312,21 @@
       <c r="H49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="1" t="n">
-        <v>7492</v>
+      <c r="I49" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>5905</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2121,66 +2344,44 @@
       <c r="H50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="1" t="n">
-        <v>7492</v>
+      <c r="I50" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>